--- a/data/trans_dic/P79$alquiler_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P79$alquiler_2023-Provincia-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.009495817483259438</v>
+        <v>0.00949581748325944</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.00474232827847294</v>
+        <v>0.004742328278472939</v>
       </c>
     </row>
     <row r="5">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.04664755742552128</v>
+        <v>0.04639057275869832</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02371672080486628</v>
+        <v>0.01991560713685911</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.007687101020190162</v>
+        <v>0.007687101020190161</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.009069881719115495</v>
+        <v>0.009069881719115498</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.008388349777317288</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001313283410774514</v>
+        <v>0.001968566244130132</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003042067152484823</v>
+        <v>0.002948731042315128</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003698477592056363</v>
+        <v>0.003713387535366952</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02127005382177527</v>
+        <v>0.02158507438159643</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02164066858564049</v>
+        <v>0.02118403763349785</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01662630385993738</v>
+        <v>0.01652712255042532</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>0.02119929729060805</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.02103371080500823</v>
+        <v>0.02103371080500824</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008294805932495142</v>
+        <v>0.008496967832110493</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009437443581281775</v>
+        <v>0.009246126212591254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0118482555124123</v>
+        <v>0.0119357376310129</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04261293385694281</v>
+        <v>0.04738396953554114</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04296055941172038</v>
+        <v>0.04095062303063232</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0358543576129185</v>
+        <v>0.03563886982652274</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007004057299273909</v>
+        <v>0.006998225135535138</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01568724373999224</v>
+        <v>0.0166736040936329</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01515306714376204</v>
+        <v>0.01473296246161418</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05067921318759041</v>
+        <v>0.05198765089974363</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06342218979466427</v>
+        <v>0.06413700415422526</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04448950434137264</v>
+        <v>0.0461844587680467</v>
       </c>
     </row>
     <row r="16">
@@ -798,10 +798,10 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.001906958777743544</v>
+        <v>0.00196505024480202</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0</v>
+        <v>0.001034224352475336</v>
       </c>
     </row>
     <row r="18">
@@ -813,10 +813,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.01613313536435124</v>
+        <v>0.01641846140886357</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.008633085354299196</v>
+        <v>0.00874200430176466</v>
       </c>
     </row>
     <row r="19">
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.005609935952853782</v>
+        <v>0.005983134412920512</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01244721286720741</v>
+        <v>0.01312479668896768</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01205327356538718</v>
+        <v>0.01186698782739693</v>
       </c>
     </row>
     <row r="21">
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03627113598568665</v>
+        <v>0.03630154432060929</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05054131361480458</v>
+        <v>0.05019406388476553</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03505292387250399</v>
+        <v>0.03598314987189793</v>
       </c>
     </row>
     <row r="22">
@@ -889,7 +889,7 @@
         <v>0.009515420444924427</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02273740007355302</v>
+        <v>0.02273740007355301</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.01637725345528826</v>
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.004371324730214809</v>
+        <v>0.003381175106486504</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0135452547854597</v>
+        <v>0.0137659039865759</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01044118955922504</v>
+        <v>0.01051620646101747</v>
       </c>
     </row>
     <row r="24">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0219405455166733</v>
+        <v>0.01984215881786388</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0353339397025794</v>
+        <v>0.03660941745138968</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02476491216025418</v>
+        <v>0.02498868977061522</v>
       </c>
     </row>
     <row r="25">
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.0471090950143614</v>
+        <v>0.04710909501436139</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.04018403750612785</v>
+        <v>0.04018403750612786</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.04360155821133124</v>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03307910955727383</v>
+        <v>0.03252961754614143</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02723488032405049</v>
+        <v>0.02847041938461261</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03375635878434172</v>
+        <v>0.03375906207477589</v>
       </c>
     </row>
     <row r="27">
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06587484457236484</v>
+        <v>0.06789769614382132</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05766806796849012</v>
+        <v>0.05666750687845651</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0560035621759437</v>
+        <v>0.05640995305119009</v>
       </c>
     </row>
     <row r="28">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01457590103365021</v>
+        <v>0.01442526973404322</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01827250849051532</v>
+        <v>0.01864190778531208</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01760365725130402</v>
+        <v>0.01822347946997742</v>
       </c>
     </row>
     <row r="30">
@@ -1030,13 +1030,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02547367789169946</v>
+        <v>0.02499793997470616</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.0291271770989474</v>
+        <v>0.02963746321991267</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02531208114483181</v>
+        <v>0.02542161993336447</v>
       </c>
     </row>
     <row r="31">
@@ -1198,10 +1198,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>14416</v>
+        <v>14336</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14676</v>
+        <v>12324</v>
       </c>
     </row>
     <row r="8">
@@ -1250,13 +1250,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>680</v>
+        <v>1020</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1621</v>
+        <v>1572</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3887</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="11">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11019</v>
+        <v>11182</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11535</v>
+        <v>11292</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17475</v>
+        <v>17371</v>
       </c>
     </row>
     <row r="12">
@@ -1322,13 +1322,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2590</v>
+        <v>2653</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3235</v>
+        <v>3169</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7760</v>
+        <v>7818</v>
       </c>
     </row>
     <row r="15">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13304</v>
+        <v>14793</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14726</v>
+        <v>14037</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23483</v>
+        <v>23342</v>
       </c>
     </row>
     <row r="16">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6184</v>
+        <v>6573</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11322</v>
+        <v>11008</v>
       </c>
     </row>
     <row r="19">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17889</v>
+        <v>18351</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25000</v>
+        <v>25282</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>33242</v>
+        <v>34508</v>
       </c>
     </row>
     <row r="20">
@@ -1467,10 +1467,10 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23">
@@ -1482,10 +1482,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>3620</v>
+        <v>3684</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3681</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="24">
@@ -1534,13 +1534,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1486</v>
+        <v>1585</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3242</v>
+        <v>3419</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6333</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="27">
@@ -1551,13 +1551,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9610</v>
+        <v>9618</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13166</v>
+        <v>13075</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18418</v>
+        <v>18907</v>
       </c>
     </row>
     <row r="28">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2974</v>
+        <v>2301</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>9944</v>
+        <v>10106</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>14770</v>
+        <v>14876</v>
       </c>
     </row>
     <row r="31">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14929</v>
+        <v>13501</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>25939</v>
+        <v>26875</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>35031</v>
+        <v>35348</v>
       </c>
     </row>
     <row r="32">
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>25818</v>
+        <v>25389</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>21816</v>
+        <v>22806</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>53386</v>
+        <v>53391</v>
       </c>
     </row>
     <row r="35">
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>51414</v>
+        <v>52993</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>46194</v>
+        <v>45393</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>88571</v>
+        <v>89214</v>
       </c>
     </row>
     <row r="36">
@@ -1750,13 +1750,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>49862</v>
+        <v>49346</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>65764</v>
+        <v>67093</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>123575</v>
+        <v>127926</v>
       </c>
     </row>
     <row r="39">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>87141</v>
+        <v>85513</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>104830</v>
+        <v>106667</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>177688</v>
+        <v>178457</v>
       </c>
     </row>
     <row r="40">
